--- a/notebooks/single_cohorts/input/TEFM_van_haute_2023.xlsx
+++ b/notebooks/single_cohorts/input/TEFM_van_haute_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/TEFM/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/single_cohorts/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E244BB62-4C03-A149-99C9-E8BE611DBD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298C96E5-D023-734B-A71E-EABDF92A6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="3460" windowWidth="28040" windowHeight="17440" xr2:uid="{EEC1785B-0916-7144-94F5-6ECD0E09F4A5}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1FD27E-56BD-DD40-B42D-35CA231E1ECA}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
